--- a/research_data/questionnaire data/diagrams.xlsx
+++ b/research_data/questionnaire data/diagrams.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" state="visible" r:id="rId3"/>
@@ -543,7 +543,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF196B24"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF156082"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -761,11 +761,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="50031441"/>
-        <c:axId val="52221873"/>
+        <c:axId val="60736618"/>
+        <c:axId val="95847572"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50031441"/>
+        <c:axId val="60736618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +798,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52221873"/>
+        <c:crossAx val="95847572"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52221873"/>
+        <c:axId val="95847572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +846,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50031441"/>
+        <c:crossAx val="60736618"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1151,11 +1151,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="50651246"/>
-        <c:axId val="61459546"/>
+        <c:axId val="32276232"/>
+        <c:axId val="42884947"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50651246"/>
+        <c:axId val="32276232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1188,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61459546"/>
+        <c:crossAx val="42884947"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61459546"/>
+        <c:axId val="42884947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1236,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50651246"/>
+        <c:crossAx val="32276232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1412,16 +1412,16 @@
                 <c:formatCode>0\ %</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,11 +1429,11 @@
         </c:ser>
         <c:gapWidth val="182"/>
         <c:overlap val="0"/>
-        <c:axId val="50237741"/>
-        <c:axId val="39314088"/>
+        <c:axId val="6276586"/>
+        <c:axId val="34417066"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50237741"/>
+        <c:axId val="6276586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1466,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39314088"/>
+        <c:crossAx val="34417066"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1474,7 +1474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39314088"/>
+        <c:axId val="34417066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1514,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50237741"/>
+        <c:crossAx val="6276586"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2197,11 +2197,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="71215929"/>
-        <c:axId val="41519175"/>
+        <c:axId val="77616006"/>
+        <c:axId val="66410253"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71215929"/>
+        <c:axId val="77616006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2234,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41519175"/>
+        <c:crossAx val="66410253"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2242,7 +2242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41519175"/>
+        <c:axId val="66410253"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2282,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71215929"/>
+        <c:crossAx val="77616006"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2816,11 +2816,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="26285651"/>
-        <c:axId val="99992871"/>
+        <c:axId val="89175512"/>
+        <c:axId val="15128712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26285651"/>
+        <c:axId val="89175512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,7 +2853,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99992871"/>
+        <c:crossAx val="15128712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2861,7 +2861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99992871"/>
+        <c:axId val="15128712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -2902,7 +2902,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26285651"/>
+        <c:crossAx val="89175512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3756,6 +3756,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>student!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="579d1c"/>
@@ -3765,6 +3776,41 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>student!$B$41:$B$43</c:f>
@@ -3782,14 +3828,32 @@
               </c:strCache>
             </c:strRef>
           </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>student!$C$41:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0\ %</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.457126164209369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30082139052136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.242052445269272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="93857679"/>
-        <c:axId val="79853095"/>
+        <c:axId val="77784935"/>
+        <c:axId val="65425173"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93857679"/>
+        <c:axId val="77784935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +3886,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79853095"/>
+        <c:crossAx val="65425173"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3830,7 +3894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79853095"/>
+        <c:axId val="65425173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3934,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93857679"/>
+        <c:crossAx val="77784935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,11 +4160,11 @@
         </c:ser>
         <c:gapWidth val="182"/>
         <c:overlap val="0"/>
-        <c:axId val="8276629"/>
-        <c:axId val="81419965"/>
+        <c:axId val="75551288"/>
+        <c:axId val="30638460"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8276629"/>
+        <c:axId val="75551288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4197,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81419965"/>
+        <c:crossAx val="30638460"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4141,7 +4205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81419965"/>
+        <c:axId val="30638460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,7 +4245,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8276629"/>
+        <c:crossAx val="75551288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4332,16 +4396,16 @@
                 <c:formatCode>0\ %</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4349,11 +4413,11 @@
         </c:ser>
         <c:gapWidth val="182"/>
         <c:overlap val="0"/>
-        <c:axId val="12132986"/>
-        <c:axId val="13987016"/>
+        <c:axId val="94531294"/>
+        <c:axId val="59587691"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12132986"/>
+        <c:axId val="94531294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4386,7 +4450,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13987016"/>
+        <c:crossAx val="59587691"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4394,7 +4458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13987016"/>
+        <c:axId val="59587691"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4434,7 +4498,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12132986"/>
+        <c:crossAx val="94531294"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4956,7 +5020,7 @@
   </sheetPr>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -6268,8 +6332,8 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6967,7 +7031,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>45</v>
@@ -6993,7 +7057,7 @@
         <v>73</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>15</v>
@@ -7019,7 +7083,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>30</v>
@@ -7045,7 +7109,7 @@
         <v>75</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>10</v>
@@ -7635,8 +7699,8 @@
   </sheetPr>
   <dimension ref="D3:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N53" activeCellId="0" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
